--- a/medicine/Sexualité et sexologie/Palette_à_fessée/Palette_à_fessée.xlsx
+++ b/medicine/Sexualité et sexologie/Palette_à_fessée/Palette_à_fessée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Palette_%C3%A0_fess%C3%A9e</t>
+          <t>Palette_à_fessée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un paddle BDSM (traduit littéralement de l'anglais Spanking paddle : palette à fessée) est un instrument destiné à frapper une personne sur les fesses, c'est-à-dire à administrer une fessée. Un paddle BDSM peut-être utilisée dans le cadre d'un châtiment corporel, d'un rituel (comme une initiation ou un bizutage) ou d'une fessée érotique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Palette_%C3%A0_fess%C3%A9e</t>
+          <t>Palette_à_fessée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un paddle BDSM est le plus souvent plat et approximativement rectangulaire et fabriquée en bois ou en plastique. Il est parfois perforée de façon à améliorer son aérodynamisme[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un paddle BDSM est le plus souvent plat et approximativement rectangulaire et fabriquée en bois ou en plastique. Il est parfois perforée de façon à améliorer son aérodynamisme.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Palette_%C3%A0_fess%C3%A9e</t>
+          <t>Palette_à_fessée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le paddle BDSM a été largement utilisée dans le cadre de la punition corporelle des esclaves, de façon à provoquer une douleur intense sans générer de blessures irréversibles[2] mais aussi dans le cadre éducatif, que ce soit à domicile ou en établissements scolaires. Aux États-Unis, en 2008, parmi les 21 états autorisant les châtiments corporels à l'école, ceux-ci prennent généralement la forme d'une fessée administrée avec un paddle en bois[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le paddle BDSM a été largement utilisée dans le cadre de la punition corporelle des esclaves, de façon à provoquer une douleur intense sans générer de blessures irréversibles mais aussi dans le cadre éducatif, que ce soit à domicile ou en établissements scolaires. Aux États-Unis, en 2008, parmi les 21 états autorisant les châtiments corporels à l'école, ceux-ci prennent généralement la forme d'une fessée administrée avec un paddle en bois.
 </t>
         </is>
       </c>
